--- a/src/assets/Template Excel/Layout_Machine_Tass.xlsx
+++ b/src/assets/Template Excel/Layout_Machine_Tass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B894E01-DCD3-4A54-B351-C1669533C2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8696EF9C-CC94-4874-9EC7-DB3E05727DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACHINE TASS DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID_MACHINE_TASS</t>
   </si>
@@ -38,13 +38,16 @@
   </si>
   <si>
     <t>WORK_CENTER_TEXT</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -56,6 +59,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,10 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,92 +451,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="2" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
